--- a/Code/Results/Cases/Case_11_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_11_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980342968504132</v>
+        <v>1.020552619952346</v>
       </c>
       <c r="D2">
-        <v>1.020227969265646</v>
+        <v>1.039870170597283</v>
       </c>
       <c r="E2">
-        <v>1.002342692684421</v>
+        <v>1.034289391995864</v>
       </c>
       <c r="F2">
-        <v>1.01577072413432</v>
+        <v>1.045584854312535</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046782275101134</v>
+        <v>1.058386604267605</v>
       </c>
       <c r="J2">
-        <v>1.020273961143928</v>
+        <v>1.04213551423045</v>
       </c>
       <c r="K2">
-        <v>1.031412509617071</v>
+        <v>1.050800649432212</v>
       </c>
       <c r="L2">
-        <v>1.013769486278824</v>
+        <v>1.045290828622272</v>
       </c>
       <c r="M2">
-        <v>1.0270146344435</v>
+        <v>1.056443651011854</v>
       </c>
       <c r="N2">
-        <v>1.021722867195811</v>
+        <v>1.017975280749472</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029952583034312</v>
+        <v>1.053243643725119</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033281564413829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046999369218492</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.014188824408834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004825848129953</v>
+        <v>1.024816065394166</v>
       </c>
       <c r="D3">
-        <v>1.024987077111015</v>
+        <v>1.04274952652365</v>
       </c>
       <c r="E3">
-        <v>1.008245117487966</v>
+        <v>1.037597387037813</v>
       </c>
       <c r="F3">
-        <v>1.020117966595953</v>
+        <v>1.04861785313135</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04870362624981</v>
+        <v>1.059419632126415</v>
       </c>
       <c r="J3">
-        <v>1.025185814633748</v>
+        <v>1.044652344157847</v>
       </c>
       <c r="K3">
-        <v>1.035309922471375</v>
+        <v>1.05286314723437</v>
       </c>
       <c r="L3">
-        <v>1.018773576396162</v>
+        <v>1.04777078269156</v>
       </c>
       <c r="M3">
-        <v>1.030499746114026</v>
+        <v>1.0586642723292</v>
       </c>
       <c r="N3">
-        <v>1.026641696080985</v>
+        <v>1.018675784674217</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032710850935052</v>
+        <v>1.055001084203217</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036034737809099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048454791940752</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.01405910150581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009085692487845</v>
+        <v>1.027524169012918</v>
       </c>
       <c r="D4">
-        <v>1.02797409762945</v>
+        <v>1.044580829010361</v>
       </c>
       <c r="E4">
-        <v>1.011947723393485</v>
+        <v>1.039704210814462</v>
       </c>
       <c r="F4">
-        <v>1.0228611408862</v>
+        <v>1.05054959797398</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049892112496765</v>
+        <v>1.060063342317008</v>
       </c>
       <c r="J4">
-        <v>1.028259806579122</v>
+        <v>1.046249079870854</v>
       </c>
       <c r="K4">
-        <v>1.037746227913403</v>
+        <v>1.054169404582678</v>
       </c>
       <c r="L4">
-        <v>1.021904057246478</v>
+        <v>1.049345940848232</v>
       </c>
       <c r="M4">
-        <v>1.032691264740112</v>
+        <v>1.06007393754035</v>
       </c>
       <c r="N4">
-        <v>1.029720053447513</v>
+        <v>1.01912007576628</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034445307860266</v>
+        <v>1.05611671701928</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037758335329352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049379368228945</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.013972908507553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010860465115729</v>
+        <v>1.0286553727756</v>
       </c>
       <c r="D5">
-        <v>1.029220952309471</v>
+        <v>1.045348190562958</v>
       </c>
       <c r="E5">
-        <v>1.013496114626757</v>
+        <v>1.040586286649762</v>
       </c>
       <c r="F5">
-        <v>1.024004762544205</v>
+        <v>1.051358263864432</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050385349758661</v>
+        <v>1.060330684230716</v>
       </c>
       <c r="J5">
-        <v>1.029542504734472</v>
+        <v>1.04691727870199</v>
       </c>
       <c r="K5">
-        <v>1.038762958080233</v>
+        <v>1.054716787653126</v>
       </c>
       <c r="L5">
-        <v>1.023213751498289</v>
+        <v>1.050005401454412</v>
       </c>
       <c r="M5">
-        <v>1.033604292718157</v>
+        <v>1.060663899613198</v>
       </c>
       <c r="N5">
-        <v>1.031004573181371</v>
+        <v>1.019306790042908</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035167914055624</v>
+        <v>1.056583622466088</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038484441739408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04977417494393</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.013936132679493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011174354167958</v>
+        <v>1.028850034816843</v>
       </c>
       <c r="D6">
-        <v>1.029443916600213</v>
+        <v>1.045482559679723</v>
       </c>
       <c r="E6">
-        <v>1.013776903854914</v>
+        <v>1.04073903309497</v>
       </c>
       <c r="F6">
-        <v>1.024203495954631</v>
+        <v>1.051498158342819</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050474980873582</v>
+        <v>1.060378332592284</v>
       </c>
       <c r="J6">
-        <v>1.029773736564012</v>
+        <v>1.047034324655517</v>
       </c>
       <c r="K6">
-        <v>1.038947209148999</v>
+        <v>1.054814205065423</v>
       </c>
       <c r="L6">
-        <v>1.023454325624266</v>
+        <v>1.050120769840736</v>
       </c>
       <c r="M6">
-        <v>1.03376430367949</v>
+        <v>1.060767072823081</v>
       </c>
       <c r="N6">
-        <v>1.031236133386631</v>
+        <v>1.019340493071703</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.035294552937738</v>
+        <v>1.056665275369845</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038623484279727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049852533739195</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.013929926150535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009157878763059</v>
+        <v>1.027564918276584</v>
       </c>
       <c r="D7">
-        <v>1.028031265494133</v>
+        <v>1.044615061949723</v>
       </c>
       <c r="E7">
-        <v>1.012029831323299</v>
+        <v>1.039739435189834</v>
       </c>
       <c r="F7">
-        <v>1.02289738356868</v>
+        <v>1.050580204984955</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I7">
-        <v>1.049919311533003</v>
+        <v>1.060079493914162</v>
       </c>
       <c r="J7">
-        <v>1.028324184982368</v>
+        <v>1.046283017549569</v>
       </c>
       <c r="K7">
-        <v>1.03779985939827</v>
+        <v>1.054200435577196</v>
       </c>
       <c r="L7">
-        <v>1.021982249600057</v>
+        <v>1.049377930463709</v>
       </c>
       <c r="M7">
-        <v>1.032724182413771</v>
+        <v>1.060101407804204</v>
       </c>
       <c r="N7">
-        <v>1.029784523275475</v>
+        <v>1.019159137020948</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034471360212696</v>
+        <v>1.056138457433029</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037816422571041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049423115743443</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.013972419231085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000422998057984</v>
+        <v>1.022056550485176</v>
       </c>
       <c r="D8">
-        <v>1.021909238034081</v>
+        <v>1.040894490084012</v>
       </c>
       <c r="E8">
-        <v>1.004444794149336</v>
+        <v>1.035461800255061</v>
       </c>
       <c r="F8">
-        <v>1.017282794957548</v>
+        <v>1.046655113163134</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047470227810799</v>
+        <v>1.058764325226311</v>
       </c>
       <c r="J8">
-        <v>1.02201893715299</v>
+        <v>1.043043727580031</v>
       </c>
       <c r="K8">
-        <v>1.032800392690885</v>
+        <v>1.051547609931322</v>
       </c>
       <c r="L8">
-        <v>1.015564892615663</v>
+        <v>1.046181924058923</v>
       </c>
       <c r="M8">
-        <v>1.028233640150378</v>
+        <v>1.05723812816305</v>
       </c>
       <c r="N8">
-        <v>1.023470321270958</v>
+        <v>1.018313696512263</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030917358042473</v>
+        <v>1.053872407996847</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034285978964664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047552379391208</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.014145450107504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9838299771539655</v>
+        <v>1.011884748568133</v>
       </c>
       <c r="D9">
-        <v>1.010291247722007</v>
+        <v>1.034033789746428</v>
       </c>
       <c r="E9">
-        <v>0.9900072044196302</v>
+        <v>1.027601554821565</v>
       </c>
       <c r="F9">
-        <v>1.006776813612212</v>
+        <v>1.039448823792681</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042674631510305</v>
+        <v>1.056225967120747</v>
       </c>
       <c r="J9">
-        <v>1.009966952910881</v>
+        <v>1.037024694889996</v>
       </c>
       <c r="K9">
-        <v>1.023219534411108</v>
+        <v>1.046597812112733</v>
       </c>
       <c r="L9">
-        <v>1.003264515415472</v>
+        <v>1.040262144267535</v>
       </c>
       <c r="M9">
-        <v>1.019760890331666</v>
+        <v>1.051932726934747</v>
       </c>
       <c r="N9">
-        <v>1.011401221828844</v>
+        <v>1.016645371769768</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024211621336735</v>
+        <v>1.049673602969801</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027508309629069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044049213146327</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.014433126537098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.972318172295267</v>
+        <v>1.004929570602025</v>
       </c>
       <c r="D10">
-        <v>1.002263909463433</v>
+        <v>1.029379217726241</v>
       </c>
       <c r="E10">
-        <v>0.9801160008376619</v>
+        <v>1.02229258453562</v>
       </c>
       <c r="F10">
-        <v>0.9997968719731504</v>
+        <v>1.034603786787262</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039296535362348</v>
+        <v>1.054453961523404</v>
       </c>
       <c r="J10">
-        <v>1.00167482111987</v>
+        <v>1.03294896115785</v>
       </c>
       <c r="K10">
-        <v>1.016592408280079</v>
+        <v>1.043237536526819</v>
       </c>
       <c r="L10">
-        <v>0.9948537937777649</v>
+        <v>1.036270676188538</v>
       </c>
       <c r="M10">
-        <v>1.014169794928025</v>
+        <v>1.048375156284413</v>
       </c>
       <c r="N10">
-        <v>1.003097314259568</v>
+        <v>1.015644801938972</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019839155359093</v>
+        <v>1.046908971744943</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.022839413356037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041691653149293</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.014613374375885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9705277986284085</v>
+        <v>1.002512755567289</v>
       </c>
       <c r="D11">
-        <v>1.001092198471612</v>
+        <v>1.027890910235457</v>
       </c>
       <c r="E11">
-        <v>0.9795222450953965</v>
+        <v>1.020664576150639</v>
       </c>
       <c r="F11">
-        <v>1.000389092270709</v>
+        <v>1.033326128376912</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038989145004961</v>
+        <v>1.053976255259073</v>
       </c>
       <c r="J11">
-        <v>1.001180217054233</v>
+        <v>1.031781373301483</v>
       </c>
       <c r="K11">
-        <v>1.015993546880683</v>
+        <v>1.042305339344784</v>
       </c>
       <c r="L11">
-        <v>0.9948409577526057</v>
+        <v>1.035207034530515</v>
       </c>
       <c r="M11">
-        <v>1.015303674609895</v>
+        <v>1.047645788188841</v>
       </c>
       <c r="N11">
-        <v>1.002602007799426</v>
+        <v>1.015662714929292</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021181608748391</v>
+        <v>1.046763841630404</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022449386757721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041068316614401</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.014688696880693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.971002910046967</v>
+        <v>1.001812417321851</v>
       </c>
       <c r="D12">
-        <v>1.001470170822472</v>
+        <v>1.027506802988282</v>
       </c>
       <c r="E12">
-        <v>0.980619706701918</v>
+        <v>1.020281264784699</v>
       </c>
       <c r="F12">
-        <v>1.001846826566303</v>
+        <v>1.033132822520364</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039284038361803</v>
+        <v>1.053894303407281</v>
       </c>
       <c r="J12">
-        <v>1.002087278051733</v>
+        <v>1.03154026996853</v>
       </c>
       <c r="K12">
-        <v>1.016569258777887</v>
+        <v>1.042125331777611</v>
       </c>
       <c r="L12">
-        <v>0.9961278658058315</v>
+        <v>1.035029956503598</v>
       </c>
       <c r="M12">
-        <v>1.016938729620793</v>
+        <v>1.047651636791236</v>
       </c>
       <c r="N12">
-        <v>1.003510356927584</v>
+        <v>1.015777708539265</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022806809282695</v>
+        <v>1.047092066425478</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022856446569387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040941049983221</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.014716266200973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.973295008747144</v>
+        <v>1.002395519713563</v>
       </c>
       <c r="D13">
-        <v>1.003102440293322</v>
+        <v>1.027960782283297</v>
       </c>
       <c r="E13">
-        <v>0.9831452414563635</v>
+        <v>1.02083999678308</v>
       </c>
       <c r="F13">
-        <v>1.004103644712397</v>
+        <v>1.033777831272755</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040086511864439</v>
+        <v>1.05412438737878</v>
       </c>
       <c r="J13">
-        <v>1.004177273411232</v>
+        <v>1.032006590174438</v>
       </c>
       <c r="K13">
-        <v>1.018126607812662</v>
+        <v>1.042528908262576</v>
       </c>
       <c r="L13">
-        <v>0.9985574896464293</v>
+        <v>1.035535806295026</v>
       </c>
       <c r="M13">
-        <v>1.019108874184586</v>
+        <v>1.04824334233843</v>
       </c>
       <c r="N13">
-        <v>1.005603320320219</v>
+        <v>1.015947070398358</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.02480313165926</v>
+        <v>1.047834475047382</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.023955045109004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041223669336531</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.014710370976007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9756700848390266</v>
+        <v>1.003386189264638</v>
       </c>
       <c r="D14">
-        <v>1.00477784803516</v>
+        <v>1.028660118093395</v>
       </c>
       <c r="E14">
-        <v>0.9855059882995306</v>
+        <v>1.021658927610072</v>
       </c>
       <c r="F14">
-        <v>1.005998263165293</v>
+        <v>1.034610203583531</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040860224804682</v>
+        <v>1.054427413165378</v>
       </c>
       <c r="J14">
-        <v>1.006128409904641</v>
+        <v>1.032654227937969</v>
       </c>
       <c r="K14">
-        <v>1.019627071527976</v>
+        <v>1.043077344130583</v>
       </c>
       <c r="L14">
-        <v>1.00072385186049</v>
+        <v>1.036200078563855</v>
       </c>
       <c r="M14">
-        <v>1.020824762322152</v>
+        <v>1.048923815315842</v>
       </c>
       <c r="N14">
-        <v>1.007557227651247</v>
+        <v>1.016092384643128</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026334701447065</v>
+        <v>1.048544532131545</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025017397503929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041612967533983</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.014690984104699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9766890399037614</v>
+        <v>1.003916275428688</v>
       </c>
       <c r="D15">
-        <v>1.005493490962952</v>
+        <v>1.029023456361933</v>
       </c>
       <c r="E15">
-        <v>0.9864437308592338</v>
+        <v>1.022075265144849</v>
       </c>
       <c r="F15">
-        <v>1.006697998603396</v>
+        <v>1.035010202777064</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041176804988454</v>
+        <v>1.054575093767443</v>
       </c>
       <c r="J15">
-        <v>1.006907618658961</v>
+        <v>1.032976926761592</v>
       </c>
       <c r="K15">
-        <v>1.020241190380482</v>
+        <v>1.04334902405158</v>
       </c>
       <c r="L15">
-        <v>1.001552530203547</v>
+        <v>1.036522861162423</v>
       </c>
       <c r="M15">
-        <v>1.02142346443611</v>
+        <v>1.049232325902766</v>
       </c>
       <c r="N15">
-        <v>1.008337542971374</v>
+        <v>1.01614716607596</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.02684579976786</v>
+        <v>1.048825684091956</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025457561006672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041811432588669</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.014678985063874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9810237937640245</v>
+        <v>1.006688684931194</v>
       </c>
       <c r="D16">
-        <v>1.008510847687537</v>
+        <v>1.030869642834539</v>
       </c>
       <c r="E16">
-        <v>0.9900205441728958</v>
+        <v>1.024164762730806</v>
       </c>
       <c r="F16">
-        <v>1.009205213021962</v>
+        <v>1.036918850919582</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042436497964476</v>
+        <v>1.055279134026093</v>
       </c>
       <c r="J16">
-        <v>1.009931801319519</v>
+        <v>1.034563471848507</v>
       </c>
       <c r="K16">
-        <v>1.022691886422416</v>
+        <v>1.044667932527243</v>
       </c>
       <c r="L16">
-        <v>1.004535133840102</v>
+        <v>1.03807556603219</v>
       </c>
       <c r="M16">
-        <v>1.023374034552505</v>
+        <v>1.050617235154756</v>
       </c>
       <c r="N16">
-        <v>1.01136602031819</v>
+        <v>1.016357343867641</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028348437766934</v>
+        <v>1.049881857192831</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027193523185896</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042747353800308</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.014608318098897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9831433025220521</v>
+        <v>1.008309096530197</v>
       </c>
       <c r="D17">
-        <v>1.009975796202421</v>
+        <v>1.031928266031206</v>
       </c>
       <c r="E17">
-        <v>0.9915735396652389</v>
+        <v>1.025349427987331</v>
       </c>
       <c r="F17">
-        <v>1.01015738091686</v>
+        <v>1.037951519088943</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043007774849729</v>
+        <v>1.055661169452627</v>
       </c>
       <c r="J17">
-        <v>1.011265033981812</v>
+        <v>1.03545167105233</v>
       </c>
       <c r="K17">
-        <v>1.023811145572111</v>
+        <v>1.045398715640653</v>
       </c>
       <c r="L17">
-        <v>1.00573094619524</v>
+        <v>1.038927123974546</v>
       </c>
       <c r="M17">
-        <v>1.023989627906372</v>
+        <v>1.051325307155023</v>
       </c>
       <c r="N17">
-        <v>1.012701146323787</v>
+        <v>1.016472814018497</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028704746626985</v>
+        <v>1.050313422806919</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027987507225219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043266835666575</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.014563261275581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834017480067445</v>
+        <v>1.00905530723871</v>
       </c>
       <c r="D18">
-        <v>1.01012523344355</v>
+        <v>1.032371737465911</v>
       </c>
       <c r="E18">
-        <v>0.9913466192668645</v>
+        <v>1.025822632493031</v>
       </c>
       <c r="F18">
-        <v>1.009640145389163</v>
+        <v>1.038275895628797</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042983199082719</v>
+        <v>1.055783850468352</v>
       </c>
       <c r="J18">
-        <v>1.011106822759706</v>
+        <v>1.035780527541116</v>
       </c>
       <c r="K18">
-        <v>1.023771451365815</v>
+        <v>1.045654146482194</v>
       </c>
       <c r="L18">
-        <v>1.005316412022429</v>
+        <v>1.039210038675665</v>
       </c>
       <c r="M18">
-        <v>1.023294526548452</v>
+        <v>1.051465099781568</v>
       </c>
       <c r="N18">
-        <v>1.012542710423599</v>
+        <v>1.016464803142732</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027914880964076</v>
+        <v>1.050188186197816</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027947675655586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043434781319818</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.014536717324443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.981940469624128</v>
+        <v>1.009012775403482</v>
       </c>
       <c r="D19">
-        <v>1.009065968647237</v>
+        <v>1.032266120061397</v>
       </c>
       <c r="E19">
-        <v>0.9894995744642795</v>
+        <v>1.02565310910657</v>
       </c>
       <c r="F19">
-        <v>1.007676678029154</v>
+        <v>1.037959995034357</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042412717118881</v>
+        <v>1.05567808866232</v>
       </c>
       <c r="J19">
-        <v>1.009564812533685</v>
+        <v>1.03560689893929</v>
       </c>
       <c r="K19">
-        <v>1.022666311329779</v>
+        <v>1.045488522802012</v>
       </c>
       <c r="L19">
-        <v>1.003436522840021</v>
+        <v>1.038981005277631</v>
       </c>
       <c r="M19">
-        <v>1.021300365010518</v>
+        <v>1.051092943716618</v>
       </c>
       <c r="N19">
-        <v>1.010998510366185</v>
+        <v>1.016334009208802</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.02600796948476</v>
+        <v>1.049571453998285</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027172763870868</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043324634257812</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.014527621879485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9755030342653205</v>
+        <v>1.006741978990206</v>
       </c>
       <c r="D20">
-        <v>1.004498249179649</v>
+        <v>1.030604281875415</v>
       </c>
       <c r="E20">
-        <v>0.9829224150741084</v>
+        <v>1.023677576731468</v>
       </c>
       <c r="F20">
-        <v>1.001703062901288</v>
+        <v>1.035870931668864</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040254977949104</v>
+        <v>1.054928034011287</v>
       </c>
       <c r="J20">
-        <v>1.004012063854953</v>
+        <v>1.034015459893558</v>
       </c>
       <c r="K20">
-        <v>1.018462460782617</v>
+        <v>1.044129523195287</v>
       </c>
       <c r="L20">
-        <v>0.9972723505243904</v>
+        <v>1.037316480984416</v>
       </c>
       <c r="M20">
-        <v>1.015716031959096</v>
+        <v>1.049311055462674</v>
       </c>
       <c r="N20">
-        <v>1.005437876147421</v>
+        <v>1.015843695999725</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021052077128908</v>
+        <v>1.047639186927021</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024204425267942</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042368071228135</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.014568122651367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9660322925268653</v>
+        <v>1.001548895549151</v>
       </c>
       <c r="D21">
-        <v>0.9978884357112578</v>
+        <v>1.027119227227984</v>
       </c>
       <c r="E21">
-        <v>0.9746074984499109</v>
+        <v>1.019707817056197</v>
       </c>
       <c r="F21">
-        <v>0.9956723945727689</v>
+        <v>1.032187609496229</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.037400751528685</v>
+        <v>1.05357481648589</v>
       </c>
       <c r="J21">
-        <v>0.9970221897044727</v>
+        <v>1.030982000515033</v>
       </c>
       <c r="K21">
-        <v>1.012909923056339</v>
+        <v>1.041604409347432</v>
       </c>
       <c r="L21">
-        <v>0.9900864551886294</v>
+        <v>1.034325196834878</v>
       </c>
       <c r="M21">
-        <v>1.010736221228123</v>
+        <v>1.046583802126693</v>
       </c>
       <c r="N21">
-        <v>0.9984380755738967</v>
+        <v>1.015431269841422</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.017068996591379</v>
+        <v>1.045440328522682</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.020281785252614</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040586304650894</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.014696704334408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9599724758478506</v>
+        <v>0.9982327032759254</v>
       </c>
       <c r="D22">
-        <v>0.9936660442728846</v>
+        <v>1.02490084607003</v>
       </c>
       <c r="E22">
-        <v>0.9693143804275064</v>
+        <v>1.017191854711287</v>
       </c>
       <c r="F22">
-        <v>0.9919599863038132</v>
+        <v>1.029867891214838</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03556542043094</v>
+        <v>1.052703064578818</v>
       </c>
       <c r="J22">
-        <v>0.9925758973997013</v>
+        <v>1.029050661110454</v>
       </c>
       <c r="K22">
-        <v>1.009364031069235</v>
+        <v>1.039994642130406</v>
       </c>
       <c r="L22">
-        <v>0.9855192599423426</v>
+        <v>1.032430261457993</v>
       </c>
       <c r="M22">
-        <v>1.00769241792275</v>
+        <v>1.044870005576707</v>
       </c>
       <c r="N22">
-        <v>0.9939854690240557</v>
+        <v>1.015165703360331</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.014659944167828</v>
+        <v>1.044083981417932</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.017760831068086</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039433469391852</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.014775183843001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9631470756200529</v>
+        <v>0.999965342234481</v>
       </c>
       <c r="D23">
-        <v>0.9958718579157801</v>
+        <v>1.026053003065844</v>
       </c>
       <c r="E23">
-        <v>0.9720614375993994</v>
+        <v>1.018500121758621</v>
       </c>
       <c r="F23">
-        <v>0.9939130675127756</v>
+        <v>1.031077432166649</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036522593768621</v>
+        <v>1.05315350139617</v>
       </c>
       <c r="J23">
-        <v>0.9948920919012862</v>
+        <v>1.03004781528002</v>
       </c>
       <c r="K23">
-        <v>1.011210820940264</v>
+        <v>1.040824145067321</v>
       </c>
       <c r="L23">
-        <v>0.9878812614800254</v>
+        <v>1.033409247601735</v>
       </c>
       <c r="M23">
-        <v>1.009290447419173</v>
+        <v>1.045758236615444</v>
       </c>
       <c r="N23">
-        <v>0.9963049527875041</v>
+        <v>1.015253530705136</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.015924723719002</v>
+        <v>1.044786952920219</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.019056795469415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040009448919467</v>
+      </c>
+      <c r="S23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T23">
+        <v>1.014733804291172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9752437610463742</v>
+        <v>1.006750133021952</v>
       </c>
       <c r="D24">
-        <v>1.00430233368467</v>
+        <v>1.030589975696792</v>
       </c>
       <c r="E24">
-        <v>0.9825771743111151</v>
+        <v>1.023660439680801</v>
       </c>
       <c r="F24">
-        <v>1.001393753205033</v>
+        <v>1.03583477512237</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040147545907646</v>
+        <v>1.054910304391668</v>
       </c>
       <c r="J24">
-        <v>1.003729251431279</v>
+        <v>1.033990795459488</v>
       </c>
       <c r="K24">
-        <v>1.018254314441634</v>
+        <v>1.044100380170601</v>
       </c>
       <c r="L24">
-        <v>0.9969173222465472</v>
+        <v>1.037284412546014</v>
       </c>
       <c r="M24">
-        <v>1.015396437104479</v>
+        <v>1.049260518155911</v>
       </c>
       <c r="N24">
-        <v>1.005154662097665</v>
+        <v>1.015819222341442</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020757359972507</v>
+        <v>1.047558752351432</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024029410392794</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04231765882618</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01456592681785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883551633266556</v>
+        <v>1.014575376501659</v>
       </c>
       <c r="D25">
-        <v>1.013465881755529</v>
+        <v>1.035854311814284</v>
       </c>
       <c r="E25">
-        <v>0.9939805336729691</v>
+        <v>1.029677553189958</v>
       </c>
       <c r="F25">
-        <v>1.009606546978452</v>
+        <v>1.041352480512971</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044007937314003</v>
+        <v>1.056913738437817</v>
       </c>
       <c r="J25">
-        <v>1.013280879880571</v>
+        <v>1.038621984094503</v>
       </c>
       <c r="K25">
-        <v>1.025858692800032</v>
+        <v>1.047920412088962</v>
       </c>
       <c r="L25">
-        <v>1.006673018389107</v>
+        <v>1.041831991946529</v>
       </c>
       <c r="M25">
-        <v>1.022057541857141</v>
+        <v>1.053341060673374</v>
       </c>
       <c r="N25">
-        <v>1.014719854954943</v>
+        <v>1.01706109769263</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026029306932358</v>
+        <v>1.050788189913703</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029403318442948</v>
+        <v>1.045015406297889</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.014360791955524</v>
       </c>
     </row>
   </sheetData>
